--- a/src/main/resources/Solutions/ExportSolution.xlsx
+++ b/src/main/resources/Solutions/ExportSolution.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -30,6 +30,25 @@
   </si>
   <si>
     <t>2020-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Ahmed Aldouri
+    </t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Ravi Kumar
+    </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -37,45 +56,26 @@
     </t>
   </si>
   <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">
         Jo Spinks
     </t>
   </si>
   <si>
-    <t>2020-02-01</t>
-  </si>
-  <si>
-    <t>2020-02-02</t>
-  </si>
-  <si>
-    <t>2020-02-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Ravi Kumar
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        Ahmed Aldouri
-    </t>
-  </si>
-  <si>
-    <t>2020-02-04</t>
-  </si>
-  <si>
     <t>2020-02-05</t>
   </si>
   <si>
     <t>2020-02-06</t>
-  </si>
-  <si>
-    <t>2020-02-07</t>
   </si>
   <si>
     <t xml:space="preserve">
         Ann Gordon
     </t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
   </si>
   <si>
     <t>2020-02-08</t>
@@ -257,49 +257,46 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="4">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -307,10 +304,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -318,20 +315,20 @@
         <v>15</v>
       </c>
       <c r="C8" t="s" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="8">
         <v>6</v>
       </c>
     </row>
@@ -350,16 +347,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -367,10 +364,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -378,10 +375,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -389,10 +386,10 @@
         <v>23</v>
       </c>
       <c r="C15" t="s" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -400,10 +397,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -421,16 +418,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s" s="18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s" s="18">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -438,21 +435,21 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
+      <c r="C21" t="s" s="20">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -460,10 +457,10 @@
         <v>30</v>
       </c>
       <c r="C22" t="s" s="21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s" s="21">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -471,10 +468,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s" s="22">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="22">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -492,16 +489,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="s" s="25">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s" s="25">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s" s="25">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -509,10 +506,10 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -520,21 +517,21 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
+      <c r="C29" t="s" s="28">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s" s="28">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -542,10 +539,10 @@
         <v>38</v>
       </c>
       <c r="B30" t="s" s="29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">

--- a/src/main/resources/Solutions/ExportSolution.xlsx
+++ b/src/main/resources/Solutions/ExportSolution.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Suggested Solution" r:id="rId3" sheetId="1"/>
+    <sheet name="Consultant Summary" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -30,6 +31,11 @@
   </si>
   <si>
     <t>2020-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        Jo Spinks
+    </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -59,11 +65,6 @@
     <t>2020-02-04</t>
   </si>
   <si>
-    <t xml:space="preserve">
-        Jo Spinks
-    </t>
-  </si>
-  <si>
     <t>2020-02-05</t>
   </si>
   <si>
@@ -145,6 +146,27 @@
   </si>
   <si>
     <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>COW Weeks</t>
+  </si>
+  <si>
+    <t>COW Weekends</t>
+  </si>
+  <si>
+    <t>NOW Weeks</t>
+  </si>
+  <si>
+    <t>NOW Weekends</t>
+  </si>
+  <si>
+    <t>Paed On Calls</t>
+  </si>
+  <si>
+    <t>Neo On Calls</t>
   </si>
 </sst>
 </file>
@@ -257,46 +279,49 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="5">
-        <v>13</v>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -304,10 +329,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -326,10 +351,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -347,27 +372,27 @@
         <v>20</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>6</v>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -375,10 +400,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -400,7 +425,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -418,13 +443,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="s" s="18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s" s="18">
-        <v>6</v>
+      <c r="D19" t="s">
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -435,21 +460,21 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s" s="20">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s" s="20">
-        <v>6</v>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -457,10 +482,10 @@
         <v>30</v>
       </c>
       <c r="C22" t="s" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -468,10 +493,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s" s="22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" s="22">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -489,12 +514,12 @@
         <v>34</v>
       </c>
       <c r="B26" t="s" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="25">
         <v>16</v>
       </c>
       <c r="E26" t="s">
@@ -506,10 +531,10 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -517,10 +542,10 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -528,10 +553,10 @@
         <v>37</v>
       </c>
       <c r="C29" t="s" s="28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s" s="28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -539,10 +564,10 @@
         <v>38</v>
       </c>
       <c r="B30" t="s" s="29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -553,6 +578,157 @@
     <row r="32">
       <c r="A32" t="s">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
